--- a/target/classes/com/qa/axisbank/testdata/testdata.xlsx
+++ b/target/classes/com/qa/axisbank/testdata/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0F7009-5437-4898-8410-A93FC02056C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98C1DCF-FBA0-41AF-AE79-32A6DCEDA13F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>City</t>
   </si>
   <si>
-    <t>S.No.</t>
-  </si>
-  <si>
     <t>Sagar Sapkal</t>
   </si>
   <si>
@@ -56,6 +53,9 @@
   </si>
   <si>
     <t>Pune</t>
+  </si>
+  <si>
+    <t>TestCaseID</t>
   </si>
 </sst>
 </file>
@@ -417,19 +417,21 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -452,19 +454,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="D2">
         <v>8087777627</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -472,19 +474,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="D3">
         <v>8081234567</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
